--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kate\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\VSCode\C++\CS1C Source\CS1C Group Project - Shapes Painter\CS1C-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7CD269-E283-41B8-838C-9381B78E2837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8594780-3F15-4DCC-AB99-19452230E690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-1230" windowWidth="19380" windowHeight="10380" xr2:uid="{459BD2F8-89AA-4DE0-98E0-4F9FB2217EBD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{459BD2F8-89AA-4DE0-98E0-4F9FB2217EBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,21 +405,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -430,26 +415,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -478,6 +445,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -797,7 +797,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,35 +812,35 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="28" t="s">
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>10.199999999999999</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="23" t="s">
         <v>22</v>
       </c>
@@ -953,183 +953,188 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="28">
         <v>11.1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="57" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="36" t="s">
+      <c r="I7" s="47"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="37"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="61" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="61" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="36" t="s">
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="61" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="61" t="s">
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="61" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="61" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="63"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="52"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="62"/>
+      <c r="M10" s="51"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="61" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="50" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="61" t="s">
+      <c r="G11" s="51"/>
+      <c r="H11" s="50" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="62"/>
+      <c r="M11" s="51"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="40" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="61" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="50" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="62"/>
+      <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="53" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="38" t="s">
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="63"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="62"/>
+      <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="39" t="s">
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
-      <c r="F16" s="45"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
-      <c r="F17" s="45"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
-      <c r="F18" s="45"/>
+      <c r="F18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B10:C10"/>
@@ -1137,11 +1142,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
